--- a/DisenioEstructurasDoradoVentura-Hermosilla.xlsx
+++ b/DisenioEstructurasDoradoVentura-Hermosilla.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1ACA8E-86BC-4BB8-8ED0-EBFE0F4BF231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7E169B-A941-43B4-BB8E-A8BE323B47FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EstructuraDatos" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="113">
   <si>
     <t>$coleccionPalabras=</t>
   </si>
@@ -348,6 +348,12 @@
   </si>
   <si>
     <t>¿Para qué se utiliza?: Almacena los datos específicos de una partida, incluyendo la palabra jugada, el jugador, el número de intentos y el puntaje obtenido.</t>
+  </si>
+  <si>
+    <t>rosiodoradoventura@gmail.com</t>
+  </si>
+  <si>
+    <t>rosiodorado</t>
   </si>
 </sst>
 </file>
@@ -819,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G141" sqref="G141"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,9 +924,18 @@
       <c r="N3" s="7" t="s">
         <v>98</v>
       </c>
+      <c r="O3" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
       <c r="R3" s="7" t="s">
         <v>88</v>
       </c>
+      <c r="S3" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="T3" s="10"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -1896,16 +1911,18 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="S3:T3"/>
     <mergeCell ref="C125:D125"/>
     <mergeCell ref="C126:D126"/>
     <mergeCell ref="C127:D127"/>
     <mergeCell ref="C128:D128"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O2" r:id="rId1" xr:uid="{BCA48DE2-7DB5-4120-BA83-C5A2776F0BCA}"/>
